--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2806.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2806.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.16955932010792</v>
+        <v>0.9019787907600403</v>
       </c>
       <c r="B1">
-        <v>2.442249581636849</v>
+        <v>1.64541482925415</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.270478248596191</v>
       </c>
       <c r="D1">
-        <v>2.36451418647134</v>
+        <v>2.745417356491089</v>
       </c>
       <c r="E1">
-        <v>1.231290211648633</v>
+        <v>0.6659830808639526</v>
       </c>
     </row>
   </sheetData>
